--- a/data/hotels_by_city/Houston/Houston_shard_383.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_383.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,9 @@
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r362071112-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Homewood-Suites-By-Hilton-North-HoustonSpring.h9248642.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531325932293&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=0e519b2c-209f-49b9-8884-c084d84c1295&amp;mctc=9&amp;exp_dp=138.57&amp;exp_ts=1531325932941&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +142,111 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r358784138-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>7154013</t>
+  </si>
+  <si>
+    <t>358784138</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Great hotel. Nice ,new and clean. The rooms are oversized. Plenty of space. Staff was very friendly. Convenient location. I have never stayed at a home wood suites but will definetly be using this chain again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Matt J, Director of Sales at Homewood Suites by Hilton North Houston/Spring, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel. Nice ,new and clean. The rooms are oversized. Plenty of space. Staff was very friendly. Convenient location. I have never stayed at a home wood suites but will definetly be using this chain again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r356670491-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>356670491</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>This property is one of the best I have stayed at. The quality of the staff, cleanliness of the facility, and the great complimentary amenities were very enjoyable. The room was clean and noise level was low. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This property is one of the best I have stayed at. The quality of the staff, cleanliness of the facility, and the great complimentary amenities were very enjoyable. The room was clean and noise level was low. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r355472146-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>355472146</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Couldn't ask for better customer service and quality!</t>
+  </si>
+  <si>
+    <t>I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all...I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all so much for making my experience away from home so much easier! P.S. the rooms are very nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Katy C, Manager at Homewood Suites by Hilton North Houston/Spring, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all...I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all so much for making my experience away from home so much easier! P.S. the rooms are very nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r354482560-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>354482560</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Everything you need away from home</t>
+  </si>
+  <si>
+    <t>This hotel is clean, well appointed, and comfortable. The staff was extremely friendly and helpful. Housekeeping did a very nice job. We were in town for a family wedding and this hotel was a great choice. Rooms are spacious with nice decor. Free breakfast had lots of good choices, even after a 4 day stay. The only negative is that some of the rooms faced the very busy freeway, but even so I had a restful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel is clean, well appointed, and comfortable. The staff was extremely friendly and helpful. Housekeeping did a very nice job. We were in town for a family wedding and this hotel was a great choice. Rooms are spacious with nice decor. Free breakfast had lots of good choices, even after a 4 day stay. The only negative is that some of the rooms faced the very busy freeway, but even so I had a restful stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +640,13 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +668,363 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63430</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63430</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63430</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63430</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_383.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_383.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -142,111 +142,6 @@
   </si>
   <si>
     <t>response_text</t>
-  </si>
-  <si>
-    <t>08/11/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r358784138-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
-  </si>
-  <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>7154013</t>
-  </si>
-  <si>
-    <t>358784138</t>
-  </si>
-  <si>
-    <t>03/26/2016</t>
-  </si>
-  <si>
-    <t>Great hotel!</t>
-  </si>
-  <si>
-    <t>Great hotel. Nice ,new and clean. The rooms are oversized. Plenty of space. Staff was very friendly. Convenient location. I have never stayed at a home wood suites but will definetly be using this chain again. MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Matt J, Director of Sales at Homewood Suites by Hilton North Houston/Spring, responded to this reviewResponded April 6, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 6, 2016</t>
-  </si>
-  <si>
-    <t>Great hotel. Nice ,new and clean. The rooms are oversized. Plenty of space. Staff was very friendly. Convenient location. I have never stayed at a home wood suites but will definetly be using this chain again. More</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r356670491-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
-  </si>
-  <si>
-    <t>356670491</t>
-  </si>
-  <si>
-    <t>03/18/2016</t>
-  </si>
-  <si>
-    <t>Wonderful place to stay</t>
-  </si>
-  <si>
-    <t>This property is one of the best I have stayed at. The quality of the staff, cleanliness of the facility, and the great complimentary amenities were very enjoyable. The room was clean and noise level was low. MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>This property is one of the best I have stayed at. The quality of the staff, cleanliness of the facility, and the great complimentary amenities were very enjoyable. The room was clean and noise level was low. More</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r355472146-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
-  </si>
-  <si>
-    <t>355472146</t>
-  </si>
-  <si>
-    <t>03/14/2016</t>
-  </si>
-  <si>
-    <t>Couldn't ask for better customer service and quality!</t>
-  </si>
-  <si>
-    <t>I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all...I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all so much for making my experience away from home so much easier! P.S. the rooms are very nice and clean.MoreShow less</t>
-  </si>
-  <si>
-    <t>Katy C, Manager at Homewood Suites by Hilton North Houston/Spring, responded to this reviewResponded March 17, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 17, 2016</t>
-  </si>
-  <si>
-    <t>I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all...I have been staying at Homewood Suites in Springs, TX for several weeks now due to work and every week that I am there they have impressed me time and time again.  One week my hands were full and the social dinner staff member Cecilia packed me a to go box, taking a few of my personal items from my hands, and escorted me to my room, even after I had declined her offer several times. Paulina who also works during evening hours always makes it appoint to greet me personally by name engaging in meaningful conversations as though we have known each other for some time. Upon every stay Katy and Berania give me the best welcoming back along with accommodating to the things I prefer before I even ask.  Reassuring me that my satisfaction and comfort are important to them.  Although I have several great experiences I won't share them all.  But this last one is a must.  On my birthday my husband delivered edible arrangements to Homewood Suites for me.  Katy, Berania, and Ryan (GM) stored them in the refrigerator in my room.  They also went the extra mile by giving me a gift from them along with a birthday card and balloon.  How amazing is that!!  To feel so cared for when you're away from your family and friends living among a hotel and being treated as if you were right at home.  Thank you all so much for making my experience away from home so much easier! P.S. the rooms are very nice and clean.More</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d7154013-r354482560-Homewood_Suites_by_Hilton_North_Houston_Spring-Spring_Texas.html</t>
-  </si>
-  <si>
-    <t>354482560</t>
-  </si>
-  <si>
-    <t>03/10/2016</t>
-  </si>
-  <si>
-    <t>Everything you need away from home</t>
-  </si>
-  <si>
-    <t>This hotel is clean, well appointed, and comfortable. The staff was extremely friendly and helpful. Housekeeping did a very nice job. We were in town for a family wedding and this hotel was a great choice. Rooms are spacious with nice decor. Free breakfast had lots of good choices, even after a 4 day stay. The only negative is that some of the rooms faced the very busy freeway, but even so I had a restful stay.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>This hotel is clean, well appointed, and comfortable. The staff was extremely friendly and helpful. Housekeeping did a very nice job. We were in town for a family wedding and this hotel was a great choice. Rooms are spacious with nice decor. Free breakfast had lots of good choices, even after a 4 day stay. The only negative is that some of the rooms faced the very busy freeway, but even so I had a restful stay.More</t>
   </si>
 </sst>
 </file>
@@ -743,290 +638,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>63430</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>63430</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>63430</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>63430</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>